--- a/data/case1/19/Ploss_1.xlsx
+++ b/data/case1/19/Ploss_1.xlsx
@@ -56,12 +56,12 @@
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.019410354105389604</v>
+        <v>0.019536202795620294</v>
       </c>
     </row>
   </sheetData>
